--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-22.xlsx
@@ -721,7 +721,7 @@
         <v>1.57</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -805,13 +805,13 @@
         <v>1.59</v>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
         <v>4.7</v>
@@ -826,7 +826,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -835,7 +835,7 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R3" t="n">
         <v>1.61</v>
@@ -946,7 +946,7 @@
         <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -976,7 +976,7 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="T4" t="n">
         <v>1.59</v>
@@ -985,7 +985,7 @@
         <v>1.99</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
         <v>2.36</v>
@@ -994,43 +994,43 @@
         <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
         <v>160</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>23</v>
       </c>
       <c r="AE4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
         <v>75</v>
       </c>
-      <c r="AF4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK4" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>32</v>
@@ -1039,10 +1039,10 @@
         <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K6" t="n">
         <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>500</v>
       </c>
       <c r="L6" t="n">
         <v>1.29</v>
@@ -1231,88 +1231,88 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="W6" t="n">
         <v>1.11</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AB6" t="n">
         <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="G7" t="n">
         <v>1.61</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>1.15</v>
@@ -1366,31 +1366,31 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="S7" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="U7" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
         <v>2.62</v>
@@ -1399,13 +1399,13 @@
         <v>65</v>
       </c>
       <c r="Y7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB7" t="n">
         <v>980</v>
@@ -1414,10 +1414,10 @@
         <v>17.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
         <v>20</v>
@@ -1429,25 +1429,25 @@
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1513,7 +1513,7 @@
         <v>1.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
         <v>2.28</v>
@@ -1768,19 +1768,19 @@
         <v>1.21</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
         <v>1.85</v>
@@ -1792,7 +1792,7 @@
         <v>1.42</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
         <v>2.32</v>
@@ -1801,58 +1801,58 @@
         <v>1.23</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
         <v>120</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11">
@@ -1885,16 +1885,16 @@
         <v>5.7</v>
       </c>
       <c r="G11" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I11" t="n">
         <v>1.58</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
         <v>5.9</v>
@@ -1912,7 +1912,7 @@
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
         <v>1.45</v>
@@ -1921,7 +1921,7 @@
         <v>1.71</v>
       </c>
       <c r="S11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T11" t="n">
         <v>1.55</v>
@@ -1930,7 +1930,7 @@
         <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
         <v>1.15</v>
@@ -1969,13 +1969,13 @@
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL11" t="n">
         <v>70</v>
@@ -2041,22 +2041,22 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="T12" t="n">
         <v>1.51</v>
@@ -2071,58 +2071,58 @@
         <v>1.86</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2851,7 +2851,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O18" t="n">
         <v>1.39</v>
@@ -2860,7 +2860,7 @@
         <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
         <v>1.22</v>
@@ -3235,7 +3235,7 @@
         <v>2.78</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H21" t="n">
         <v>2.16</v>
@@ -3244,7 +3244,7 @@
         <v>2.86</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
@@ -3280,7 +3280,7 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
         <v>1.33</v>
@@ -3673,7 +3673,7 @@
         <v>2.14</v>
       </c>
       <c r="R24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S24" t="n">
         <v>2.14</v>
@@ -3805,13 +3805,13 @@
         <v>1.97</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R25" t="n">
         <v>1.38</v>
       </c>
       <c r="S25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G26" t="n">
         <v>2.76</v>
@@ -4045,10 +4045,10 @@
         <v>4.2</v>
       </c>
       <c r="G27" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H27" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="I27" t="n">
         <v>1.93</v>
@@ -4075,7 +4075,7 @@
         <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R27" t="n">
         <v>1.43</v>
@@ -4093,7 +4093,7 @@
         <v>2.06</v>
       </c>
       <c r="W27" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X27" t="n">
         <v>980</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G28" t="n">
         <v>1.8</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
         <v>5.9</v>
@@ -4192,7 +4192,7 @@
         <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,13 +4201,13 @@
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>1.86</v>
+        <v>3.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="Q28" t="n">
         <v>1.96</v>
@@ -4216,13 +4216,13 @@
         <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
         <v>1.2</v>
@@ -4231,58 +4231,58 @@
         <v>2.24</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF28" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ28" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G29" t="n">
         <v>2.36</v>
@@ -4327,7 +4327,7 @@
         <v>3.7</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L29" t="n">
         <v>1.33</v>
@@ -4336,13 +4336,13 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="O29" t="n">
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q29" t="n">
         <v>1.53</v>
@@ -4354,10 +4354,10 @@
         <v>2.34</v>
       </c>
       <c r="T29" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="V29" t="n">
         <v>1.41</v>
@@ -4369,19 +4369,19 @@
         <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z29" t="n">
         <v>980</v>
       </c>
       <c r="AA29" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="n">
         <v>16</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD29" t="n">
         <v>17</v>
@@ -4390,13 +4390,13 @@
         <v>38</v>
       </c>
       <c r="AF29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH29" t="n">
         <v>21</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
         <v>44</v>
@@ -4408,7 +4408,7 @@
         <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
         <v>80</v>
@@ -4450,7 +4450,7 @@
         <v>2.58</v>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>2.26</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4624,10 +4624,10 @@
         <v>3.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U31" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V31" t="n">
         <v>1.72</v>
@@ -4636,58 +4636,58 @@
         <v>1.35</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z31" t="n">
         <v>980</v>
       </c>
       <c r="AA31" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE31" t="n">
         <v>980</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI31" t="n">
         <v>980</v>
       </c>
       <c r="AJ31" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL31" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -4729,10 +4729,10 @@
         <v>2.84</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G33" t="n">
         <v>2.54</v>
@@ -4861,7 +4861,7 @@
         <v>2.88</v>
       </c>
       <c r="I33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
@@ -4900,7 +4900,7 @@
         <v>2.46</v>
       </c>
       <c r="V33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W33" t="n">
         <v>1.64</v>
@@ -4990,7 +4990,7 @@
         <v>2.08</v>
       </c>
       <c r="G34" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -5002,7 +5002,7 @@
         <v>3.35</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>3.55</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>2.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R36" t="n">
         <v>1.45</v>
@@ -5533,7 +5533,7 @@
         <v>5.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I38" t="n">
         <v>2.06</v>
@@ -6079,7 +6079,7 @@
         <v>6.4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>4.2</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G44" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>2.58</v>
@@ -6349,7 +6349,7 @@
         <v>3.35</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K44" t="n">
         <v>5.2</v>
@@ -6616,7 +6616,7 @@
         <v>2.2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J46" t="n">
         <v>2.8</v>
@@ -6640,7 +6640,7 @@
         <v>1.64</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J47" t="n">
         <v>3.15</v>
@@ -6886,10 +6886,10 @@
         <v>2.18</v>
       </c>
       <c r="I48" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K48" t="n">
         <v>4.9</v>
@@ -6910,7 +6910,7 @@
         <v>1.99</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R48" t="n">
         <v>1.38</v>
@@ -6982,7 +6982,7 @@
         <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G54" t="n">
         <v>2.28</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="I56" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>1.73</v>
       </c>
       <c r="G59" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H59" t="n">
         <v>3.8</v>
@@ -8500,13 +8500,13 @@
         <v>1.86</v>
       </c>
       <c r="G60" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>4.2</v>
       </c>
       <c r="I60" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J60" t="n">
         <v>3.55</v>
@@ -8635,19 +8635,19 @@
         <v>1.45</v>
       </c>
       <c r="G61" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="H61" t="n">
-        <v>2.22</v>
+        <v>5.5</v>
       </c>
       <c r="I61" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J61" t="n">
         <v>3.6</v>
       </c>
       <c r="K61" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>1.47</v>
       </c>
       <c r="P62" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R62" t="n">
         <v>1.24</v>
@@ -8905,10 +8905,10 @@
         <v>2.94</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="I63" t="n">
         <v>3.05</v>
@@ -9205,7 +9205,7 @@
         <v>1.65</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>1.25</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9589,7 +9589,7 @@
         <v>3.6</v>
       </c>
       <c r="J68" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
         <v>5.8</v>
@@ -9610,7 +9610,7 @@
         <v>1.59</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>1.18</v>
       </c>
       <c r="P70" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q70" t="n">
         <v>1.57</v>
       </c>
       <c r="R70" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S70" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T70" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U70" t="n">
         <v>2.62</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y70" t="n">
         <v>24</v>
@@ -9910,7 +9910,7 @@
         <v>40</v>
       </c>
       <c r="AA70" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB70" t="n">
         <v>13.5</v>
@@ -9949,7 +9949,7 @@
         <v>65</v>
       </c>
       <c r="AN70" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO70" t="n">
         <v>34</v>
@@ -10123,10 +10123,10 @@
         <v>1.21</v>
       </c>
       <c r="H72" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I72" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J72" t="n">
         <v>8.800000000000001</v>
@@ -10150,7 +10150,7 @@
         <v>3.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R72" t="n">
         <v>1.95</v>
@@ -10174,7 +10174,7 @@
         <v>190</v>
       </c>
       <c r="Y72" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z72" t="n">
         <v>1000</v>
@@ -10189,7 +10189,7 @@
         <v>21</v>
       </c>
       <c r="AD72" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE72" t="n">
         <v>1000</v>
@@ -10258,10 +10258,10 @@
         <v>3.5</v>
       </c>
       <c r="H73" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I73" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J73" t="n">
         <v>3.75</v>
@@ -10414,7 +10414,7 @@
         <v>11</v>
       </c>
       <c r="O74" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P74" t="n">
         <v>4.3</v>
@@ -10525,19 +10525,19 @@
         <v>1.35</v>
       </c>
       <c r="G75" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="H75" t="n">
         <v>9.4</v>
       </c>
       <c r="I75" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J75" t="n">
         <v>4.4</v>
       </c>
       <c r="K75" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>4.4</v>
       </c>
       <c r="K76" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11206,7 +11206,7 @@
         <v>2.18</v>
       </c>
       <c r="I80" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J80" t="n">
         <v>3.05</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="Q80" t="n">
         <v>1.9</v>
@@ -11611,10 +11611,10 @@
         <v>4.2</v>
       </c>
       <c r="I83" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J83" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K83" t="n">
         <v>5.1</v>
@@ -11635,7 +11635,7 @@
         <v>3.05</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G84" t="n">
         <v>1.7</v>
@@ -11794,7 +11794,7 @@
         <v>19.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z84" t="n">
         <v>44</v>
@@ -11839,7 +11839,7 @@
         <v>85</v>
       </c>
       <c r="AN84" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO84" t="n">
         <v>65</v>
@@ -12013,7 +12013,7 @@
         <v>2.02</v>
       </c>
       <c r="H86" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I86" t="n">
         <v>4.3</v>
@@ -12154,7 +12154,7 @@
         <v>5.7</v>
       </c>
       <c r="J87" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K87" t="n">
         <v>4.1</v>
@@ -12322,7 +12322,7 @@
         <v>2.02</v>
       </c>
       <c r="U88" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -12370,13 +12370,13 @@
         <v>28</v>
       </c>
       <c r="AK88" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL88" t="n">
         <v>48</v>
       </c>
       <c r="AM88" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN88" t="n">
         <v>21</v>
@@ -12424,7 +12424,7 @@
         <v>7.2</v>
       </c>
       <c r="J89" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K89" t="n">
         <v>5.2</v>
@@ -12688,7 +12688,7 @@
         <v>6.8</v>
       </c>
       <c r="H91" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I91" t="n">
         <v>1.7</v>
@@ -12820,7 +12820,7 @@
         <v>2.3</v>
       </c>
       <c r="G92" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H92" t="n">
         <v>2.88</v>
@@ -12829,7 +12829,7 @@
         <v>3.3</v>
       </c>
       <c r="J92" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K92" t="n">
         <v>4.1</v>
@@ -13093,7 +13093,7 @@
         <v>9</v>
       </c>
       <c r="H94" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I94" t="n">
         <v>1.8</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G96" t="n">
         <v>1.78</v>
@@ -13372,7 +13372,7 @@
         <v>3.9</v>
       </c>
       <c r="K96" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>2.9</v>
       </c>
       <c r="I97" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="J97" t="n">
         <v>3.45</v>
@@ -13525,7 +13525,7 @@
         <v>2.02</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13657,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q98" t="n">
         <v>1.69</v>
@@ -14200,7 +14200,7 @@
         <v>2.36</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R102" t="n">
         <v>1.55</v>
@@ -14212,7 +14212,7 @@
         <v>1.61</v>
       </c>
       <c r="U102" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V102" t="n">
         <v>0</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G103" t="n">
         <v>1.83</v>
@@ -14605,7 +14605,7 @@
         <v>2</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14710,7 +14710,7 @@
         <v>4.3</v>
       </c>
       <c r="G106" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H106" t="n">
         <v>1.81</v>
@@ -14719,7 +14719,7 @@
         <v>2.02</v>
       </c>
       <c r="J106" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K106" t="n">
         <v>4.5</v>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q106" t="n">
         <v>2.02</v>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G113" t="n">
         <v>21</v>
@@ -15661,7 +15661,7 @@
         <v>1.46</v>
       </c>
       <c r="I113" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J113" t="n">
         <v>3.7</v>
@@ -15817,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q114" t="n">
         <v>1.55</v>
@@ -16063,13 +16063,13 @@
         <v>3.35</v>
       </c>
       <c r="H116" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I116" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J116" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K116" t="n">
         <v>4.6</v>
@@ -16087,10 +16087,10 @@
         <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -16195,7 +16195,7 @@
         <v>4.3</v>
       </c>
       <c r="G117" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H117" t="n">
         <v>1.62</v>
@@ -16498,10 +16498,10 @@
         <v>1.56</v>
       </c>
       <c r="R119" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S119" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T119" t="n">
         <v>1.51</v>
@@ -16870,7 +16870,7 @@
         <v>1.71</v>
       </c>
       <c r="G122" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H122" t="n">
         <v>4.7</v>
@@ -16879,7 +16879,7 @@
         <v>1000</v>
       </c>
       <c r="J122" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K122" t="n">
         <v>3.9</v>
@@ -17032,10 +17032,10 @@
         <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>
@@ -17167,13 +17167,13 @@
         <v>1.19</v>
       </c>
       <c r="P124" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R124" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S124" t="n">
         <v>2.42</v>
@@ -17182,7 +17182,7 @@
         <v>1.52</v>
       </c>
       <c r="U124" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V124" t="n">
         <v>0</v>
@@ -17407,10 +17407,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H126" t="n">
         <v>2.04</v>
@@ -17419,10 +17419,10 @@
         <v>2.74</v>
       </c>
       <c r="J126" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K126" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -17440,7 +17440,7 @@
         <v>2.06</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -17545,13 +17545,13 @@
         <v>2.56</v>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H127" t="n">
         <v>2.46</v>
       </c>
       <c r="I127" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="J127" t="n">
         <v>3.7</v>
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G128" t="n">
         <v>1.77</v>
@@ -17686,13 +17686,13 @@
         <v>5.7</v>
       </c>
       <c r="I128" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J128" t="n">
         <v>3.6</v>
       </c>
       <c r="K128" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -17710,7 +17710,7 @@
         <v>1.72</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -17845,7 +17845,7 @@
         <v>1.66</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
@@ -18082,10 +18082,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="G131" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="H131" t="n">
         <v>4.2</v>
@@ -18493,16 +18493,16 @@
         <v>1.74</v>
       </c>
       <c r="H134" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="I134" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J134" t="n">
         <v>3.85</v>
       </c>
       <c r="K134" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -18895,16 +18895,16 @@
         <v>1.48</v>
       </c>
       <c r="G137" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H137" t="n">
         <v>4.9</v>
       </c>
       <c r="I137" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J137" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="K137" t="n">
         <v>5.3</v>
@@ -19306,7 +19306,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J140" t="n">
         <v>5.1</v>
@@ -19357,7 +19357,7 @@
         <v>29</v>
       </c>
       <c r="Z140" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA140" t="n">
         <v>1000</v>
@@ -19432,16 +19432,16 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1.31</v>
+        <v>1.9</v>
       </c>
       <c r="G141" t="n">
         <v>2.68</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I141" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="J141" t="n">
         <v>3.3</v>
@@ -19582,7 +19582,7 @@
         <v>9.4</v>
       </c>
       <c r="K142" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -19651,7 +19651,7 @@
         <v>12.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AI142" t="n">
         <v>1000</v>
@@ -19705,16 +19705,16 @@
         <v>1.38</v>
       </c>
       <c r="G143" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H143" t="n">
-        <v>2.82</v>
+        <v>1.09</v>
       </c>
       <c r="I143" t="n">
         <v>1000</v>
       </c>
       <c r="J143" t="n">
-        <v>4.1</v>
+        <v>1.14</v>
       </c>
       <c r="K143" t="n">
         <v>1000</v>
@@ -19972,22 +19972,22 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H145" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I145" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J145" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K145" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -20002,10 +20002,10 @@
         <v>0</v>
       </c>
       <c r="P145" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R145" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-22.xlsx
@@ -838,7 +838,7 @@
         <v>1.61</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>2.48</v>
@@ -976,13 +976,13 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
         <v>1.2</v>
@@ -991,7 +991,7 @@
         <v>2.36</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
         <v>28</v>
@@ -1012,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
@@ -1024,7 +1024,7 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
@@ -1033,7 +1033,7 @@
         <v>19.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
         <v>100</v>
@@ -1111,7 +1111,7 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
         <v>1.62</v>
@@ -1240,13 +1240,13 @@
         <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
         <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="T6" t="n">
         <v>1.71</v>
@@ -1648,10 +1648,10 @@
         <v>1.11</v>
       </c>
       <c r="R9" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="T9" t="n">
         <v>1.38</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
@@ -1783,16 +1783,16 @@
         <v>1.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S10" t="n">
         <v>1.99</v>
       </c>
       <c r="T10" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="V10" t="n">
         <v>2.32</v>
@@ -1801,7 +1801,7 @@
         <v>1.23</v>
       </c>
       <c r="X10" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
         <v>20</v>
@@ -1819,7 +1819,7 @@
         <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>18.5</v>
@@ -1828,7 +1828,7 @@
         <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>19.5</v>
@@ -1900,7 +1900,7 @@
         <v>5.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1912,19 +1912,19 @@
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
         <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="n">
         <v>2.22</v>
@@ -1933,7 +1933,7 @@
         <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X11" t="n">
         <v>38</v>
@@ -1945,10 +1945,10 @@
         <v>16.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC11" t="n">
         <v>15.5</v>
@@ -1975,7 +1975,7 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="n">
         <v>70</v>
@@ -2029,10 +2029,10 @@
         <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -2056,7 +2056,7 @@
         <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
         <v>1.51</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
@@ -2830,16 +2830,16 @@
         <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H18" t="n">
         <v>2.06</v>
       </c>
       <c r="I18" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
         <v>980</v>
@@ -2875,10 +2875,10 @@
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3544,10 +3544,10 @@
         <v>2.32</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
         <v>1.08</v>
@@ -3652,7 +3652,7 @@
         <v>2.9</v>
       </c>
       <c r="K24" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3676,7 +3676,7 @@
         <v>1.2</v>
       </c>
       <c r="S24" t="n">
-        <v>2.14</v>
+        <v>3.15</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -3943,10 +3943,10 @@
         <v>1.66</v>
       </c>
       <c r="R26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S26" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T26" t="n">
         <v>1.57</v>
@@ -4066,7 +4066,7 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="O27" t="n">
         <v>1.21</v>
@@ -4078,7 +4078,7 @@
         <v>1.55</v>
       </c>
       <c r="R27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
         <v>2.28</v>
@@ -4234,7 +4234,7 @@
         <v>15.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Z28" t="n">
         <v>44</v>
@@ -4246,22 +4246,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>110</v>
@@ -4270,7 +4270,7 @@
         <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>48</v>
@@ -4336,22 +4336,22 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
         <v>2.34</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S29" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T29" t="n">
         <v>1.56</v>
@@ -4366,16 +4366,16 @@
         <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y29" t="n">
         <v>24</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB29" t="n">
         <v>16</v>
@@ -4384,7 +4384,7 @@
         <v>12.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE29" t="n">
         <v>38</v>
@@ -4411,7 +4411,7 @@
         <v>42</v>
       </c>
       <c r="AM29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
@@ -4855,10 +4855,10 @@
         <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -4888,10 +4888,10 @@
         <v>1.17</v>
       </c>
       <c r="R33" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
         <v>1.4</v>
@@ -4903,7 +4903,7 @@
         <v>1.45</v>
       </c>
       <c r="W33" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -5005,16 +5005,16 @@
         <v>4.8</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P34" t="n">
         <v>2.16</v>
@@ -5023,76 +5023,76 @@
         <v>1.69</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5155,7 +5155,7 @@
         <v>2.06</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5275,16 +5275,16 @@
         <v>4.8</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
         <v>4.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P36" t="n">
         <v>2.2</v>
@@ -5296,7 +5296,7 @@
         <v>1.45</v>
       </c>
       <c r="S36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T36" t="n">
         <v>1.99</v>
@@ -5305,16 +5305,16 @@
         <v>1.98</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X36" t="n">
         <v>18</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z36" t="n">
         <v>8.6</v>
@@ -5323,43 +5323,43 @@
         <v>13</v>
       </c>
       <c r="AB36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH36" t="n">
         <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AK36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN36" t="n">
         <v>140</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>170</v>
       </c>
       <c r="AO36" t="n">
         <v>7.6</v>
@@ -5401,7 +5401,7 @@
         <v>5.6</v>
       </c>
       <c r="I37" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="J37" t="n">
         <v>3.35</v>
@@ -5545,94 +5545,94 @@
         <v>500</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
         <v>1.88</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
         <v>1.75</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5935,10 +5935,10 @@
         <v>4.2</v>
       </c>
       <c r="G41" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I41" t="n">
         <v>2.18</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G44" t="n">
         <v>3.2</v>
@@ -6346,13 +6346,13 @@
         <v>2.58</v>
       </c>
       <c r="I44" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J44" t="n">
         <v>3.35</v>
       </c>
       <c r="K44" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6745,13 +6745,13 @@
         <v>2.6</v>
       </c>
       <c r="G47" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H47" t="n">
         <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J47" t="n">
         <v>3.15</v>
@@ -6775,7 +6775,7 @@
         <v>1.66</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R47" t="n">
         <v>1.24</v>
@@ -6784,7 +6784,7 @@
         <v>4.8</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U47" t="n">
         <v>1.96</v>
@@ -6901,7 +6901,7 @@
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
         <v>1.23</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
         <v>11</v>
@@ -7297,7 +7297,7 @@
         <v>3.4</v>
       </c>
       <c r="K51" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q54" t="n">
         <v>1.85</v>
@@ -7960,13 +7960,13 @@
         <v>2.64</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H56" t="n">
         <v>2.64</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J56" t="n">
         <v>3.2</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8125,7 +8125,7 @@
         <v>1.24</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G58" t="n">
         <v>1.87</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>1.86</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H60" t="n">
         <v>4.2</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G63" t="n">
         <v>3.05</v>
@@ -9715,7 +9715,7 @@
         <v>3.65</v>
       </c>
       <c r="G69" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H69" t="n">
         <v>2.08</v>
@@ -9859,7 +9859,7 @@
         <v>4.7</v>
       </c>
       <c r="J70" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K70" t="n">
         <v>4.5</v>
@@ -9883,13 +9883,13 @@
         <v>1.57</v>
       </c>
       <c r="R70" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S70" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T70" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U70" t="n">
         <v>2.62</v>
@@ -9910,7 +9910,7 @@
         <v>40</v>
       </c>
       <c r="AA70" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB70" t="n">
         <v>13.5</v>
@@ -9919,7 +9919,7 @@
         <v>10.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE70" t="n">
         <v>48</v>
@@ -9937,13 +9937,13 @@
         <v>46</v>
       </c>
       <c r="AJ70" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK70" t="n">
         <v>16.5</v>
       </c>
       <c r="AL70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM70" t="n">
         <v>65</v>
@@ -10150,10 +10150,10 @@
         <v>3.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R72" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S72" t="n">
         <v>1.98</v>
@@ -10162,7 +10162,7 @@
         <v>1.99</v>
       </c>
       <c r="U72" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="Y72" t="n">
         <v>1000</v>
@@ -10255,10 +10255,10 @@
         <v>3.4</v>
       </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H73" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I73" t="n">
         <v>2.28</v>
@@ -10297,7 +10297,7 @@
         <v>1.62</v>
       </c>
       <c r="U73" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -11338,13 +11338,13 @@
         <v>5.7</v>
       </c>
       <c r="H81" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I81" t="n">
         <v>1.92</v>
       </c>
       <c r="J81" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K81" t="n">
         <v>4.2</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G82" t="n">
         <v>3.15</v>
@@ -11797,7 +11797,7 @@
         <v>23</v>
       </c>
       <c r="Z84" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA84" t="n">
         <v>980</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>2.56</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12982,7 +12982,7 @@
         <v>1.36</v>
       </c>
       <c r="P93" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q93" t="n">
         <v>2.08</v>
@@ -13051,7 +13051,7 @@
         <v>70</v>
       </c>
       <c r="AM93" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AN93" t="n">
         <v>70</v>
@@ -13762,13 +13762,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.24</v>
+        <v>1.48</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>980</v>
       </c>
       <c r="H99" t="n">
-        <v>2.3</v>
+        <v>1.09</v>
       </c>
       <c r="I99" t="n">
         <v>3.1</v>
@@ -13777,7 +13777,7 @@
         <v>3.45</v>
       </c>
       <c r="K99" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -13927,7 +13927,7 @@
         <v>1.18</v>
       </c>
       <c r="P100" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q100" t="n">
         <v>1.56</v>
@@ -13987,7 +13987,7 @@
         <v>85</v>
       </c>
       <c r="AJ100" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK100" t="n">
         <v>14</v>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G103" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H103" t="n">
         <v>4.6</v>
@@ -14707,22 +14707,22 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="G106" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H106" t="n">
         <v>1.81</v>
       </c>
       <c r="I106" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="J106" t="n">
         <v>3.7</v>
       </c>
       <c r="K106" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -14737,10 +14737,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -15142,10 +15142,10 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -15529,7 +15529,7 @@
         <v>4.8</v>
       </c>
       <c r="J112" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K112" t="n">
         <v>5.3</v>
@@ -15655,10 +15655,10 @@
         <v>5.7</v>
       </c>
       <c r="G113" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H113" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I113" t="n">
         <v>1.74</v>
@@ -16090,7 +16090,7 @@
         <v>2.72</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -16225,7 +16225,7 @@
         <v>1.85</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -16870,7 +16870,7 @@
         <v>1.71</v>
       </c>
       <c r="G122" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>4.7</v>
@@ -16879,7 +16879,7 @@
         <v>1000</v>
       </c>
       <c r="J122" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="K122" t="n">
         <v>3.9</v>
@@ -17179,7 +17179,7 @@
         <v>2.42</v>
       </c>
       <c r="T124" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U124" t="n">
         <v>2.7</v>
@@ -17407,19 +17407,19 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G126" t="n">
         <v>3.9</v>
       </c>
       <c r="H126" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I126" t="n">
         <v>2.74</v>
       </c>
       <c r="J126" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K126" t="n">
         <v>5.3</v>
@@ -17542,13 +17542,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G127" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="H127" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I127" t="n">
         <v>2.78</v>
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q128" t="n">
         <v>1.92</v>
@@ -18217,13 +18217,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G132" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H132" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I132" t="n">
         <v>3.6</v>
@@ -18232,7 +18232,7 @@
         <v>3.3</v>
       </c>
       <c r="K132" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -18247,10 +18247,10 @@
         <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R132" t="n">
         <v>0</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="H133" t="n">
-        <v>2.24</v>
+        <v>4.7</v>
       </c>
       <c r="I133" t="n">
         <v>1000</v>
@@ -18367,7 +18367,7 @@
         <v>3.8</v>
       </c>
       <c r="K133" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -18487,22 +18487,22 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="G134" t="n">
         <v>1.74</v>
       </c>
       <c r="H134" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I134" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="J134" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K134" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -19168,7 +19168,7 @@
         <v>8.4</v>
       </c>
       <c r="H139" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="I139" t="n">
         <v>1.49</v>
@@ -19177,7 +19177,7 @@
         <v>4.9</v>
       </c>
       <c r="K139" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -19306,7 +19306,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J140" t="n">
         <v>5.1</v>
@@ -19324,7 +19324,7 @@
         <v>5</v>
       </c>
       <c r="O140" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P140" t="n">
         <v>2.32</v>
@@ -19339,7 +19339,7 @@
         <v>2.76</v>
       </c>
       <c r="T140" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U140" t="n">
         <v>2.02</v>
@@ -19837,7 +19837,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G144" t="n">
         <v>2.3</v>
@@ -19849,7 +19849,7 @@
         <v>5.5</v>
       </c>
       <c r="J144" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K144" t="n">
         <v>4.9</v>
@@ -19867,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="P144" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q144" t="n">
         <v>1.96</v>
@@ -20005,7 +20005,7 @@
         <v>1.93</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R145" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-22.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G2" t="n">
         <v>2.74</v>
@@ -694,7 +694,7 @@
         <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
         <v>2.1</v>
@@ -712,7 +712,7 @@
         <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
         <v>1.57</v>
@@ -721,7 +721,7 @@
         <v>1.57</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -745,13 +745,13 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
         <v>1.73</v>
@@ -976,13 +976,13 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
         <v>1.2</v>
@@ -991,7 +991,7 @@
         <v>2.36</v>
       </c>
       <c r="X4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>28</v>
@@ -1012,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
@@ -1024,7 +1024,7 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
@@ -1033,7 +1033,7 @@
         <v>19.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
         <v>100</v>
@@ -1210,7 +1210,7 @@
         <v>7.6</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
         <v>1.4</v>
@@ -1240,7 +1240,7 @@
         <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
         <v>1.56</v>
@@ -1513,7 +1513,7 @@
         <v>1.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
         <v>2.28</v>
@@ -1528,7 +1528,7 @@
         <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
@@ -1777,7 +1777,7 @@
         <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
         <v>1.4</v>
@@ -1789,7 +1789,7 @@
         <v>1.99</v>
       </c>
       <c r="T10" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="U10" t="n">
         <v>2.62</v>
@@ -1852,7 +1852,7 @@
         <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="G11" t="n">
         <v>7.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="I11" t="n">
         <v>1.58</v>
@@ -1909,19 +1909,19 @@
         <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
         <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T11" t="n">
         <v>1.57</v>
@@ -1951,7 +1951,7 @@
         <v>36</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
@@ -1963,10 +1963,10 @@
         <v>70</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
         <v>32</v>
@@ -1981,7 +1981,7 @@
         <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
@@ -2029,7 +2029,7 @@
         <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2056,7 +2056,7 @@
         <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="T12" t="n">
         <v>1.51</v>
@@ -2446,13 +2446,13 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q15" t="n">
         <v>1.34</v>
@@ -2986,13 +2986,13 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Q19" t="n">
         <v>1.02</v>
@@ -3004,10 +3004,10 @@
         <v>1.41</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V19" t="n">
         <v>1.01</v>
@@ -3274,10 +3274,10 @@
         <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.54</v>
@@ -3391,7 +3391,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
@@ -3409,10 +3409,10 @@
         <v>2.46</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
         <v>1.4</v>
@@ -3673,16 +3673,16 @@
         <v>2.14</v>
       </c>
       <c r="R24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
         <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.25</v>
@@ -3814,10 +3814,10 @@
         <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
         <v>1.17</v>
@@ -3916,13 +3916,13 @@
         <v>2.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>1.34</v>
@@ -3961,7 +3961,7 @@
         <v>1.56</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>980</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G29" t="n">
         <v>2.36</v>
@@ -4321,7 +4321,7 @@
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
         <v>3.7</v>
@@ -4342,10 +4342,10 @@
         <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R29" t="n">
         <v>1.47</v>
@@ -4360,13 +4360,13 @@
         <v>2.42</v>
       </c>
       <c r="V29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W29" t="n">
         <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
         <v>24</v>
@@ -4384,16 +4384,16 @@
         <v>12.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4402,7 +4402,7 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="n">
         <v>26</v>
@@ -4630,7 +4630,7 @@
         <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W31" t="n">
         <v>1.35</v>
@@ -4723,16 +4723,16 @@
         <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
         <v>2.84</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>2.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -4885,7 +4885,7 @@
         <v>2.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="R33" t="n">
         <v>1.58</v>
@@ -4894,7 +4894,7 @@
         <v>2.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="U33" t="n">
         <v>2.46</v>
@@ -5029,10 +5029,10 @@
         <v>2.6</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
         <v>1.28</v>
@@ -5260,7 +5260,7 @@
         <v>7.2</v>
       </c>
       <c r="G36" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H36" t="n">
         <v>1.53</v>
@@ -5314,7 +5314,7 @@
         <v>18</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z36" t="n">
         <v>8.6</v>
@@ -5395,7 +5395,7 @@
         <v>1.71</v>
       </c>
       <c r="G37" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H37" t="n">
         <v>5.6</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5530,10 +5530,10 @@
         <v>3.75</v>
       </c>
       <c r="G38" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="H38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="I38" t="n">
         <v>2.06</v>
@@ -5542,7 +5542,7 @@
         <v>3.45</v>
       </c>
       <c r="K38" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,10 +5551,10 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P38" t="n">
         <v>1.88</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G44" t="n">
         <v>3.2</v>
@@ -6613,16 +6613,16 @@
         <v>4.8</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="I46" t="n">
         <v>2.88</v>
       </c>
       <c r="J46" t="n">
-        <v>2.8</v>
+        <v>2.24</v>
       </c>
       <c r="K46" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J47" t="n">
         <v>3.15</v>
@@ -6889,10 +6889,10 @@
         <v>2.82</v>
       </c>
       <c r="J48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K48" t="n">
-        <v>4.9</v>
+        <v>500</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -7315,7 +7315,7 @@
         <v>1.74</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7960,13 +7960,13 @@
         <v>2.64</v>
       </c>
       <c r="G56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>2.64</v>
       </c>
       <c r="I56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
         <v>3.2</v>
@@ -8797,7 +8797,7 @@
         <v>1.47</v>
       </c>
       <c r="P62" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q62" t="n">
         <v>2.42</v>
@@ -8842,7 +8842,7 @@
         <v>11</v>
       </c>
       <c r="AE62" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF62" t="n">
         <v>27</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G63" t="n">
         <v>3.05</v>
@@ -9475,7 +9475,7 @@
         <v>1.25</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9715,13 +9715,13 @@
         <v>3.65</v>
       </c>
       <c r="G69" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H69" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I69" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J69" t="n">
         <v>3.9</v>
@@ -9748,16 +9748,16 @@
         <v>1.65</v>
       </c>
       <c r="R69" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S69" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T69" t="n">
         <v>1.59</v>
       </c>
       <c r="U69" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>16</v>
       </c>
       <c r="AA69" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB69" t="n">
         <v>20</v>
@@ -9787,7 +9787,7 @@
         <v>11.5</v>
       </c>
       <c r="AE69" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF69" t="n">
         <v>32</v>
@@ -9796,13 +9796,13 @@
         <v>16</v>
       </c>
       <c r="AH69" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK69" t="n">
         <v>40</v>
@@ -9985,10 +9985,10 @@
         <v>2.4</v>
       </c>
       <c r="G71" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H71" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I71" t="n">
         <v>3.2</v>
@@ -10042,7 +10042,7 @@
         <v>16</v>
       </c>
       <c r="Z71" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA71" t="n">
         <v>50</v>
@@ -10087,7 +10087,7 @@
         <v>16</v>
       </c>
       <c r="AO71" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
@@ -10126,7 +10126,7 @@
         <v>16.5</v>
       </c>
       <c r="I72" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="J72" t="n">
         <v>8.800000000000001</v>
@@ -10156,7 +10156,7 @@
         <v>1.96</v>
       </c>
       <c r="S72" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T72" t="n">
         <v>1.99</v>
@@ -10261,7 +10261,7 @@
         <v>2.22</v>
       </c>
       <c r="I73" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J73" t="n">
         <v>3.75</v>
@@ -10414,7 +10414,7 @@
         <v>11</v>
       </c>
       <c r="O74" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P74" t="n">
         <v>4.3</v>
@@ -10525,16 +10525,16 @@
         <v>1.35</v>
       </c>
       <c r="G75" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>9.4</v>
       </c>
       <c r="I75" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="J75" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K75" t="n">
         <v>6.6</v>
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G76" t="n">
         <v>1.4</v>
@@ -10672,7 +10672,7 @@
         <v>4.4</v>
       </c>
       <c r="K76" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -11095,7 +11095,7 @@
         <v>2.22</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q80" t="n">
         <v>1.9</v>
@@ -11611,10 +11611,10 @@
         <v>4.2</v>
       </c>
       <c r="I83" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J83" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K83" t="n">
         <v>5.1</v>
@@ -11635,7 +11635,7 @@
         <v>3.05</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G84" t="n">
         <v>1.7</v>
@@ -11752,7 +11752,7 @@
         <v>4.3</v>
       </c>
       <c r="K84" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y84" t="n">
         <v>23</v>
@@ -11806,7 +11806,7 @@
         <v>11</v>
       </c>
       <c r="AC84" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD84" t="n">
         <v>21</v>
@@ -11821,7 +11821,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH84" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI84" t="n">
         <v>65</v>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G85" t="n">
         <v>1.45</v>
@@ -11959,7 +11959,7 @@
         <v>22</v>
       </c>
       <c r="AI85" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AJ85" t="n">
         <v>13</v>
@@ -12064,7 +12064,7 @@
         <v>19</v>
       </c>
       <c r="Y86" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z86" t="n">
         <v>32</v>
@@ -12301,7 +12301,7 @@
         <v>1.1</v>
       </c>
       <c r="N88" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O88" t="n">
         <v>1.44</v>
@@ -12364,10 +12364,10 @@
         <v>21</v>
       </c>
       <c r="AI88" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ88" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK88" t="n">
         <v>25</v>
@@ -12376,7 +12376,7 @@
         <v>48</v>
       </c>
       <c r="AM88" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN88" t="n">
         <v>21</v>
@@ -12424,7 +12424,7 @@
         <v>7.2</v>
       </c>
       <c r="J89" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K89" t="n">
         <v>5.2</v>
@@ -12712,10 +12712,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>2.3</v>
       </c>
       <c r="G92" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>2.88</v>
@@ -12829,7 +12829,7 @@
         <v>3.3</v>
       </c>
       <c r="J92" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K92" t="n">
         <v>4.1</v>
@@ -12982,7 +12982,7 @@
         <v>1.36</v>
       </c>
       <c r="P93" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q93" t="n">
         <v>2.08</v>
@@ -13051,7 +13051,7 @@
         <v>70</v>
       </c>
       <c r="AM93" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AN93" t="n">
         <v>70</v>
@@ -13627,22 +13627,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="G98" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="H98" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K98" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -13762,13 +13762,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.48</v>
+        <v>2.24</v>
       </c>
       <c r="G99" t="n">
-        <v>980</v>
+        <v>3.05</v>
       </c>
       <c r="H99" t="n">
-        <v>1.09</v>
+        <v>2.26</v>
       </c>
       <c r="I99" t="n">
         <v>3.1</v>
@@ -13777,7 +13777,7 @@
         <v>3.45</v>
       </c>
       <c r="K99" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -14179,7 +14179,7 @@
         <v>3.8</v>
       </c>
       <c r="J102" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K102" t="n">
         <v>3.9</v>
@@ -14200,7 +14200,7 @@
         <v>2.36</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R102" t="n">
         <v>1.55</v>
@@ -14305,7 +14305,7 @@
         <v>1.5</v>
       </c>
       <c r="G103" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H103" t="n">
         <v>4.6</v>
@@ -14590,16 +14590,16 @@
         <v>5.6</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P105" t="n">
         <v>2</v>
@@ -14608,76 +14608,76 @@
         <v>1.61</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106">
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q106" t="n">
         <v>2.14</v>
@@ -15124,7 +15124,7 @@
         <v>5.9</v>
       </c>
       <c r="J109" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K109" t="n">
         <v>3.8</v>
@@ -15412,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q111" t="n">
         <v>1.37</v>
@@ -15793,7 +15793,7 @@
         <v>2.82</v>
       </c>
       <c r="H114" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I114" t="n">
         <v>2.74</v>
@@ -16012,7 +16012,7 @@
         <v>42</v>
       </c>
       <c r="AJ115" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK115" t="n">
         <v>60</v>
@@ -16090,7 +16090,7 @@
         <v>2.72</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -16195,7 +16195,7 @@
         <v>4.3</v>
       </c>
       <c r="G117" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H117" t="n">
         <v>1.62</v>
@@ -16492,13 +16492,13 @@
         <v>1.18</v>
       </c>
       <c r="P119" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q119" t="n">
         <v>1.56</v>
       </c>
       <c r="R119" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S119" t="n">
         <v>2.36</v>
@@ -17035,7 +17035,7 @@
         <v>1.25</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>
@@ -17161,7 +17161,7 @@
         <v>1.04</v>
       </c>
       <c r="N124" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O124" t="n">
         <v>1.19</v>
@@ -17677,10 +17677,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G128" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H128" t="n">
         <v>5.7</v>
@@ -18082,10 +18082,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G131" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H131" t="n">
         <v>4.2</v>
@@ -18223,7 +18223,7 @@
         <v>2.98</v>
       </c>
       <c r="H132" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I132" t="n">
         <v>3.6</v>
@@ -18352,22 +18352,22 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H133" t="n">
-        <v>4.7</v>
+        <v>2.28</v>
       </c>
       <c r="I133" t="n">
         <v>1000</v>
       </c>
       <c r="J133" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K133" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="P133" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q133" t="n">
         <v>1.55</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G134" t="n">
         <v>1.74</v>
@@ -18496,7 +18496,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J134" t="n">
         <v>3.95</v>
@@ -18895,16 +18895,16 @@
         <v>1.48</v>
       </c>
       <c r="G137" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H137" t="n">
         <v>4.9</v>
       </c>
       <c r="I137" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="J137" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="K137" t="n">
         <v>5.3</v>
@@ -19090,7 +19090,7 @@
         <v>24</v>
       </c>
       <c r="AA138" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB138" t="n">
         <v>9.199999999999999</v>
@@ -19165,10 +19165,10 @@
         <v>7.2</v>
       </c>
       <c r="G139" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H139" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I139" t="n">
         <v>1.49</v>
@@ -19201,7 +19201,7 @@
         <v>1.61</v>
       </c>
       <c r="S139" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T139" t="n">
         <v>1.76</v>
@@ -19306,7 +19306,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J140" t="n">
         <v>5.1</v>
@@ -19324,7 +19324,7 @@
         <v>5</v>
       </c>
       <c r="O140" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P140" t="n">
         <v>2.32</v>
@@ -19339,7 +19339,7 @@
         <v>2.76</v>
       </c>
       <c r="T140" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U140" t="n">
         <v>2.02</v>
@@ -19462,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="P141" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q141" t="n">
         <v>1.01</v>
@@ -19576,13 +19576,13 @@
         <v>16.5</v>
       </c>
       <c r="I142" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J142" t="n">
         <v>9.4</v>
       </c>
       <c r="K142" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>1.02</v>
       </c>
       <c r="N142" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O142" t="n">
         <v>1.17</v>
@@ -19645,13 +19645,13 @@
         <v>1000</v>
       </c>
       <c r="AF142" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG142" t="n">
         <v>12.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI142" t="n">
         <v>1000</v>
@@ -19705,7 +19705,7 @@
         <v>1.38</v>
       </c>
       <c r="G143" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H143" t="n">
         <v>1.09</v>
@@ -19714,7 +19714,7 @@
         <v>1000</v>
       </c>
       <c r="J143" t="n">
-        <v>1.14</v>
+        <v>5.5</v>
       </c>
       <c r="K143" t="n">
         <v>1000</v>
@@ -19735,7 +19735,7 @@
         <v>1.25</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R143" t="n">
         <v>0</v>
@@ -19972,16 +19972,16 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G145" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H145" t="n">
         <v>6.2</v>
       </c>
       <c r="I145" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J145" t="n">
         <v>3.95</v>
@@ -20002,10 +20002,10 @@
         <v>0</v>
       </c>
       <c r="P145" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R145" t="n">
         <v>0</v>
